--- a/v6_A-B-C-D-E_Sputtering_ML/v6_A-B-C-D-E_Sputtering_ML_KW/v6_KW99_SSS_FCC_byCompo_at_pct_ML.xlsx
+++ b/v6_A-B-C-D-E_Sputtering_ML/v6_A-B-C-D-E_Sputtering_ML_KW/v6_KW99_SSS_FCC_byCompo_at_pct_ML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/InSync/2021_MPIE/2021-12_H Diffusion/Matlab Toolbox HEA/v6_A-B-C-D-E_Sputtering_ML_master/v6_A-B-C-D-E_Sputtering_ML_KW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/InSync/2021_MPIE/2021-12_H Diffusion/Matlab Toolbox HEA/v6_A-B-C-D-E_Sputtering/CCA_CALPHAD_SSS_ML/v6_A-B-C-D-E_Sputtering_ML/v6_A-B-C-D-E_Sputtering_ML_KW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52AF702-C755-D542-B3FA-2B2E8EED3FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279B5FE-CAF1-AA4D-BCB6-781B6D5DB280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48400" yWindow="1560" windowWidth="37460" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38100" yWindow="500" windowWidth="37460" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +341,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -424,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -437,10 +449,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -456,8 +464,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="V56" sqref="V56:W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,10 +826,10 @@
     <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.33203125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -847,16 +887,16 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -918,21 +958,21 @@
       <c r="S2">
         <v>9.2845624560342106</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="17">
         <v>166.14170837402341</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="17">
         <v>63.017086029052727</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="12">
         <v>491.43484497070312</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="18">
         <v>84.382667541503906</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="5">
@@ -989,92 +1029,92 @@
       <c r="S3">
         <v>9.3629366744135716</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="17">
         <v>190.29966735839841</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="17">
         <v>82.405876159667969</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="12">
         <v>494.86428833007812</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="18">
         <v>89.733161926269531</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:23" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>41.4</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>35.200000000000003</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>3.6</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>11.1</v>
       </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
         <v>89.184297658035931</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>0.27748071859195378</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <v>5.5288874138794873E-2</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>253.84211301410451</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="10">
         <v>1.051397152222343E-2</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="10">
         <v>-6.594660000000002</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="10">
         <v>8.1030000000000015</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="10">
         <v>9.3607211260671583</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="19">
         <v>188.58189392089841</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="19">
         <v>74.429893493652344</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="13">
         <v>514.5992431640625</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="20">
         <v>98.2877197265625</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="5">
@@ -1131,16 +1171,16 @@
       <c r="S5">
         <v>9.3700320170210745</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="17">
         <v>193.07350158691409</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="17">
         <v>79.170074462890625</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="12">
         <v>522.373779296875</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="18">
         <v>109.9546813964844</v>
       </c>
     </row>
@@ -1202,16 +1242,16 @@
       <c r="S6">
         <v>9.3613620803812516</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="17">
         <v>187.3979797363281</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="17">
         <v>61.697246551513672</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="12">
         <v>487.63134765625</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="18">
         <v>154.62852478027341</v>
       </c>
     </row>
@@ -1273,16 +1313,16 @@
       <c r="S7">
         <v>8.6869786083378386</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="17">
         <v>130.84379577636719</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="17">
         <v>31.068704605102539</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="12">
         <v>431.125</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="18">
         <v>81.334709167480469</v>
       </c>
     </row>
@@ -1344,16 +1384,16 @@
       <c r="S8">
         <v>8.8678294976843119</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="17">
         <v>141.890625</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="17">
         <v>36.993446350097663</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="12">
         <v>457.06976318359381</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="18">
         <v>64.979499816894531</v>
       </c>
     </row>
@@ -1415,16 +1455,16 @@
       <c r="S9">
         <v>8.9951483422957779</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="17">
         <v>157.6585998535156</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="17">
         <v>50.106201171875</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="12">
         <v>464.70361328125</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="18">
         <v>75.9456787109375</v>
       </c>
     </row>
@@ -1486,16 +1526,16 @@
       <c r="S10">
         <v>9.0564396978061978</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="17">
         <v>178.67243957519531</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="17">
         <v>67.573616027832031</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="12">
         <v>480.71890258789062</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="18">
         <v>97.771644592285156</v>
       </c>
     </row>
@@ -1557,21 +1597,21 @@
       <c r="S11">
         <v>9.1010109328579532</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="17">
         <v>190.06800842285159</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="17">
         <v>73.782089233398438</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="12">
         <v>494.42388916015619</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="18">
         <v>128.0582275390625</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="5">
@@ -1628,92 +1668,92 @@
       <c r="S12">
         <v>9.140590790534274</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="17">
         <v>181.74913024902341</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="17">
         <v>55.769504547119141</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="12">
         <v>465.7916259765625</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="18">
         <v>153.7342224121094</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:23" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="9">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <v>31.2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>26.1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="10">
         <v>17.3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="10">
         <v>11.5</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="10">
         <v>13.9</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
         <v>83.075004294501539</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="10">
         <v>0.29043883562515538</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="10">
         <v>7.1370917884803958E-2</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="10">
         <v>367.35414678792762</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="10">
         <v>1.768480321822407E-2</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="10">
         <v>-7.9759720000000014</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="10">
         <v>7.93</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="10">
         <v>9.2147653252809434</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="19">
         <v>200.0450134277344</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="19">
         <v>55.866401672363281</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="13">
         <v>409.11245727539062</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="20">
         <v>184.94621276855469</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="5">
@@ -1770,16 +1810,16 @@
       <c r="S14">
         <v>7.7335344638173558</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="17">
         <v>120.3015975952148</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="17">
         <v>66.771675109863281</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="12">
         <v>240.74613952636719</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="18">
         <v>95.527183532714844</v>
       </c>
     </row>
@@ -1841,16 +1881,16 @@
       <c r="S15">
         <v>8.1040175221923096</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="17">
         <v>123.6717834472656</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="17">
         <v>26.43815994262695</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="12">
         <v>334.63021850585938</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="18">
         <v>100.9444046020508</v>
       </c>
     </row>
@@ -1912,16 +1952,16 @@
       <c r="S16">
         <v>8.3512044333952957</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="17">
         <v>130.67430114746091</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="17">
         <v>29.32622146606445</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="12">
         <v>409.90805053710938</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="18">
         <v>79.633247375488281</v>
       </c>
     </row>
@@ -1983,16 +2023,16 @@
       <c r="S17">
         <v>8.5751536398391348</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="17">
         <v>148.22688293457031</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="17">
         <v>41.312347412109382</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="12">
         <v>445.0916748046875</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="18">
         <v>78.684539794921875</v>
       </c>
     </row>
@@ -2054,21 +2094,21 @@
       <c r="S18">
         <v>8.671361474828764</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="17">
         <v>156.2440490722656</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="17">
         <v>46.846672058105469</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="12">
         <v>459.43487548828119</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="18">
         <v>88.473159790039062</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="5">
@@ -2125,92 +2165,92 @@
       <c r="S19">
         <v>8.7985851135281976</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="17">
         <v>180.20393371582031</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="17">
         <v>64.268943786621094</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="12">
         <v>473.10787963867188</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="18">
         <v>129.291259765625</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:23" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="9">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="10">
         <v>38.299999999999997</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="10">
         <v>23.2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="10">
         <v>11.4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="10">
         <v>9.1</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10">
         <v>82.897266353443754</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="10">
         <v>0.2915542632713608</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="10">
         <v>6.7285167404856058E-2</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="10">
         <v>332.67123107839808</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="10">
         <v>1.6157470013332079E-2</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="10">
         <v>-7.421816944294469</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="10">
         <v>8.1428571428571423</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="10">
         <v>8.882371758003444</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="19">
         <v>182.4659118652344</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="19">
         <v>60.30902099609375</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="13">
         <v>466.76544189453119</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="20">
         <v>152.83256530761719</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="5">
@@ -2267,16 +2307,16 @@
       <c r="S21">
         <v>8.9958472940382972</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="17">
         <v>201.46751403808591</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="17">
         <v>58.563503265380859</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="12">
         <v>408.98147583007812</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="18">
         <v>183.35394287109381</v>
       </c>
     </row>
@@ -2338,16 +2378,16 @@
       <c r="S22">
         <v>9.1429169604660352</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="17">
         <v>252.7898254394531</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="17">
         <v>60.671058654785163</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="12">
         <v>334.79769897460938</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="18">
         <v>178.91424560546881</v>
       </c>
     </row>
@@ -2409,16 +2449,16 @@
       <c r="S23">
         <v>7.216960367729742</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="17">
         <v>113.5662460327148</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="17">
         <v>22.817167282104489</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="12">
         <v>164.26429748535159</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="18">
         <v>73.916107177734375</v>
       </c>
     </row>
@@ -2480,16 +2520,16 @@
       <c r="S24">
         <v>7.588807547961669</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="17">
         <v>116.61083984375</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="17">
         <v>19.243843078613281</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="12">
         <v>259.77877807617188</v>
       </c>
-      <c r="W24" s="6">
+      <c r="W24" s="18">
         <v>103.6223831176758</v>
       </c>
     </row>
@@ -2551,16 +2591,16 @@
       <c r="S25">
         <v>7.8437172310072469</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="17">
         <v>127.1840133666992</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="17">
         <v>27.21085166931152</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="12">
         <v>336.44110107421881</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="18">
         <v>105.51552581787109</v>
       </c>
     </row>
@@ -2622,21 +2662,21 @@
       <c r="S26">
         <v>8.0717178833377243</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="17">
         <v>137.767333984375</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="17">
         <v>31.607791900634769</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="12">
         <v>417.60946655273438</v>
       </c>
-      <c r="W26" s="6">
+      <c r="W26" s="18">
         <v>100.23805999755859</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="5">
@@ -2693,92 +2733,92 @@
       <c r="S27">
         <v>8.2848295094105584</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="17">
         <v>152.07563781738281</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="17">
         <v>39.787284851074219</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="12">
         <v>471.4222412109375</v>
       </c>
-      <c r="W27" s="6">
+      <c r="W27" s="18">
         <v>93.617042541503906</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:23" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="9">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="10">
         <v>44</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="10">
         <v>19.600000000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="10">
         <v>7.1999999999999993</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="10">
         <v>6.7</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="10">
         <v>22.4</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
         <v>82.542754518480891</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="10">
         <v>0.29316581616931892</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="10">
         <v>6.1140665631698697E-2</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="10">
         <v>283.30094035371962</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="10">
         <v>1.4245469584245669E-2</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="10">
         <v>-6.6002979956933894</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="10">
         <v>8.3593593593593578</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="10">
         <v>8.4477842510593355</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="19">
         <v>165.7698669433594</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="19">
         <v>46.414939880371087</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="13">
         <v>470.92193603515619</v>
       </c>
-      <c r="W28" s="6">
+      <c r="W28" s="20">
         <v>115.8621139526367</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="5">
@@ -2835,16 +2875,16 @@
       <c r="S29">
         <v>8.6039102406910786</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="17">
         <v>185.5922546386719</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="17">
         <v>64.006416320800781</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="12">
         <v>454.95675659179688</v>
       </c>
-      <c r="W29" s="6">
+      <c r="W29" s="18">
         <v>145.6178894042969</v>
       </c>
     </row>
@@ -2906,16 +2946,16 @@
       <c r="S30">
         <v>8.7913082075422668</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="17">
         <v>212.5743713378906</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="17">
         <v>57.568637847900391</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V30" s="12">
         <v>418.98287963867188</v>
       </c>
-      <c r="W30" s="6">
+      <c r="W30" s="18">
         <v>168.1186218261719</v>
       </c>
     </row>
@@ -2977,16 +3017,16 @@
       <c r="S31">
         <v>8.9332141789252617</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="17">
         <v>260.86654663085938</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="17">
         <v>60.1468505859375</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="12">
         <v>317.27114868164062</v>
       </c>
-      <c r="W31" s="6">
+      <c r="W31" s="18">
         <v>175.11222839355469</v>
       </c>
     </row>
@@ -3048,16 +3088,16 @@
       <c r="S32">
         <v>6.7872748581444684</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="17">
         <v>112.1353454589844</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="17">
         <v>21.078073501586911</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="12">
         <v>131.35691833496091</v>
       </c>
-      <c r="W32" s="6">
+      <c r="W32" s="18">
         <v>86.131362915039062</v>
       </c>
     </row>
@@ -3119,16 +3159,16 @@
       <c r="S33">
         <v>7.1412533913872576</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="17">
         <v>118.1420364379883</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="17">
         <v>18.807514190673832</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="12">
         <v>199.8055725097656</v>
       </c>
-      <c r="W33" s="6">
+      <c r="W33" s="18">
         <v>96.761085510253906</v>
       </c>
     </row>
@@ -3190,16 +3230,16 @@
       <c r="S34">
         <v>7.3999932432401581</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="17">
         <v>126.2522506713867</v>
       </c>
-      <c r="U34" s="6">
+      <c r="U34" s="17">
         <v>25.227659225463871</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="12">
         <v>284.0738525390625</v>
       </c>
-      <c r="W34" s="6">
+      <c r="W34" s="18">
         <v>107.8676834106445</v>
       </c>
     </row>
@@ -3261,16 +3301,16 @@
       <c r="S35">
         <v>7.6296723389671186</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="17">
         <v>136.84977722167969</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U35" s="17">
         <v>30.093622207641602</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="12">
         <v>378.32855224609381</v>
       </c>
-      <c r="W35" s="6">
+      <c r="W35" s="18">
         <v>107.1648254394531</v>
       </c>
     </row>
@@ -3332,16 +3372,16 @@
       <c r="S36">
         <v>7.8766490336944681</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="17">
         <v>149.89860534667969</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" s="17">
         <v>37.006565093994141</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="12">
         <v>435.56875610351562</v>
       </c>
-      <c r="W36" s="6">
+      <c r="W36" s="18">
         <v>100.97093200683589</v>
       </c>
     </row>
@@ -3403,16 +3443,16 @@
       <c r="S37">
         <v>8.05429078193729</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="17">
         <v>160.03466796875</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="17">
         <v>47.925247192382812</v>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="12">
         <v>483.49288940429688</v>
       </c>
-      <c r="W37" s="6">
+      <c r="W37" s="18">
         <v>114.4112548828125</v>
       </c>
     </row>
@@ -3474,16 +3514,16 @@
       <c r="S38">
         <v>8.2724400896387049</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="17">
         <v>179.47660827636719</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="17">
         <v>55.020275115966797</v>
       </c>
-      <c r="V38" s="7">
+      <c r="V38" s="12">
         <v>458.76214599609381</v>
       </c>
-      <c r="W38" s="6">
+      <c r="W38" s="18">
         <v>135.81080627441409</v>
       </c>
     </row>
@@ -3545,16 +3585,16 @@
       <c r="S39">
         <v>8.4875204842130358</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="17">
         <v>216.25111389160159</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" s="17">
         <v>63.6849365234375</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="12">
         <v>407.08465576171881</v>
       </c>
-      <c r="W39" s="6">
+      <c r="W39" s="18">
         <v>159.6361083984375</v>
       </c>
     </row>
@@ -3616,16 +3656,16 @@
       <c r="S40">
         <v>8.7125426828222778</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="17">
         <v>281.30856323242188</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="17">
         <v>65.255355834960938</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40" s="12">
         <v>343.8162841796875</v>
       </c>
-      <c r="W40" s="6">
+      <c r="W40" s="18">
         <v>176.20869445800781</v>
       </c>
     </row>
@@ -3687,16 +3727,16 @@
       <c r="S41">
         <v>6.4635516552434238</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="17">
         <v>114.6903610229492</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="17">
         <v>22.175504684448239</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="12">
         <v>112.9132614135742</v>
       </c>
-      <c r="W41" s="6">
+      <c r="W41" s="18">
         <v>89.133125305175781</v>
       </c>
     </row>
@@ -3758,16 +3798,16 @@
       <c r="S42">
         <v>6.7511627165807866</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="17">
         <v>121.18409729003911</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="17">
         <v>22.61142730712891</v>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="12">
         <v>167.1174621582031</v>
       </c>
-      <c r="W42" s="6">
+      <c r="W42" s="18">
         <v>105.66616058349609</v>
       </c>
     </row>
@@ -3829,16 +3869,16 @@
       <c r="S43">
         <v>6.978606551472156</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="17">
         <v>128.16705322265619</v>
       </c>
-      <c r="U43" s="6">
+      <c r="U43" s="17">
         <v>23.98952674865723</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="12">
         <v>242.4109191894531</v>
       </c>
-      <c r="W43" s="6">
+      <c r="W43" s="18">
         <v>104.4230117797852</v>
       </c>
     </row>
@@ -3900,16 +3940,16 @@
       <c r="S44">
         <v>7.2078597075436459</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="17">
         <v>134.52781677246091</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U44" s="17">
         <v>27.22323036193848</v>
       </c>
-      <c r="V44" s="7">
+      <c r="V44" s="12">
         <v>348.93048095703119</v>
       </c>
-      <c r="W44" s="6">
+      <c r="W44" s="18">
         <v>111.26060485839839</v>
       </c>
     </row>
@@ -3971,16 +4011,16 @@
       <c r="S45">
         <v>7.4123612971845887</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="17">
         <v>146.9383850097656</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U45" s="17">
         <v>35.847888946533203</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="12">
         <v>413.02310180664062</v>
       </c>
-      <c r="W45" s="6">
+      <c r="W45" s="18">
         <v>107.1814041137695</v>
       </c>
     </row>
@@ -4042,16 +4082,16 @@
       <c r="S46">
         <v>7.671573974187802</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="17">
         <v>161.291259765625</v>
       </c>
-      <c r="U46" s="6">
+      <c r="U46" s="17">
         <v>41.967372894287109</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="12">
         <v>453.82147216796881</v>
       </c>
-      <c r="W46" s="6">
+      <c r="W46" s="18">
         <v>104.68186187744141</v>
       </c>
     </row>
@@ -4113,16 +4153,16 @@
       <c r="S47">
         <v>7.8952137399819646</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="17">
         <v>184.7559509277344</v>
       </c>
-      <c r="U47" s="6">
+      <c r="U47" s="17">
         <v>55.850734710693359</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="12">
         <v>446.82369995117188</v>
       </c>
-      <c r="W47" s="6">
+      <c r="W47" s="18">
         <v>130.90480041503909</v>
       </c>
     </row>
@@ -4184,16 +4224,16 @@
       <c r="S48">
         <v>8.1952181179026589</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="17">
         <v>224.23637390136719</v>
       </c>
-      <c r="U48" s="6">
+      <c r="U48" s="17">
         <v>70.473861694335938</v>
       </c>
-      <c r="V48" s="7">
+      <c r="V48" s="12">
         <v>402.11697387695312</v>
       </c>
-      <c r="W48" s="6">
+      <c r="W48" s="18">
         <v>172.54884338378909</v>
       </c>
     </row>
@@ -4255,21 +4295,21 @@
       <c r="S49">
         <v>8.4856584894750515</v>
       </c>
-      <c r="T49" s="6">
+      <c r="T49" s="17">
         <v>287.7781982421875</v>
       </c>
-      <c r="U49" s="6">
+      <c r="U49" s="17">
         <v>69.601036071777344</v>
       </c>
-      <c r="V49" s="7">
+      <c r="V49" s="12">
         <v>366.06246948242188</v>
       </c>
-      <c r="W49" s="6">
+      <c r="W49" s="18">
         <v>174.12648010253909</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    <row r="50" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <v>48</v>
       </c>
       <c r="B50" s="5">
@@ -4326,92 +4366,92 @@
       <c r="S50">
         <v>6.2571239399583574</v>
       </c>
-      <c r="T50" s="6">
+      <c r="T50" s="17">
         <v>119.0177764892578</v>
       </c>
-      <c r="U50" s="6">
+      <c r="U50" s="17">
         <v>16.635787963867191</v>
       </c>
-      <c r="V50" s="7">
+      <c r="V50" s="12">
         <v>108.2587890625</v>
       </c>
-      <c r="W50" s="6">
+      <c r="W50" s="18">
         <v>106.74560546875</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" spans="1:23" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="9">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="10">
         <v>53.900000000000013</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="10">
         <v>7.0000000000000009</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="10">
         <v>1.3</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="10">
         <v>1.4</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="10">
         <v>36.4</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
+      <c r="H51" s="10">
+        <v>1</v>
+      </c>
+      <c r="I51" s="10">
+        <v>1</v>
+      </c>
+      <c r="J51" s="10">
+        <v>1</v>
+      </c>
+      <c r="K51" s="10">
         <v>80.314690689440638</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="10">
         <v>0.30039076549662302</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="10">
         <v>3.721866258326486E-2</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="10">
         <v>116.83626826084119</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="10">
         <v>7.1065531065234461E-3</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="10">
         <v>-3.4654480000000012</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="10">
         <v>8.9090000000000007</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="10">
         <v>6.4573678848273772</v>
       </c>
-      <c r="T51" s="6">
+      <c r="T51" s="19">
         <v>123.15195465087891</v>
       </c>
-      <c r="U51" s="6">
+      <c r="U51" s="19">
         <v>20.320404052734379</v>
       </c>
-      <c r="V51" s="7">
+      <c r="V51" s="13">
         <v>137.93379211425781</v>
       </c>
-      <c r="W51" s="6">
+      <c r="W51" s="20">
         <v>106.318229675293</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="7">
         <v>50</v>
       </c>
       <c r="B52" s="5">
@@ -4468,16 +4508,16 @@
       <c r="S52">
         <v>6.5980366996048936</v>
       </c>
-      <c r="T52" s="6">
+      <c r="T52" s="17">
         <v>134.31907653808591</v>
       </c>
-      <c r="U52" s="6">
+      <c r="U52" s="17">
         <v>33.470794677734382</v>
       </c>
-      <c r="V52" s="7">
+      <c r="V52" s="12">
         <v>193.9606628417969</v>
       </c>
-      <c r="W52" s="6">
+      <c r="W52" s="18">
         <v>107.21530914306641</v>
       </c>
     </row>
@@ -4539,16 +4579,16 @@
       <c r="S53">
         <v>6.7869286131504296</v>
       </c>
-      <c r="T53" s="6">
+      <c r="T53" s="17">
         <v>138.9783630371094</v>
       </c>
-      <c r="U53" s="6">
+      <c r="U53" s="17">
         <v>28.766508102416989</v>
       </c>
-      <c r="V53" s="7">
+      <c r="V53" s="12">
         <v>281.1793212890625</v>
       </c>
-      <c r="W53" s="6">
+      <c r="W53" s="18">
         <v>127.4177627563477</v>
       </c>
     </row>
@@ -4610,21 +4650,21 @@
       <c r="S54">
         <v>6.9997071367307937</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T54" s="17">
         <v>151.0340270996094</v>
       </c>
-      <c r="U54" s="6">
+      <c r="U54" s="17">
         <v>42.960601806640618</v>
       </c>
-      <c r="V54" s="7">
+      <c r="V54" s="12">
         <v>362.15447998046881</v>
       </c>
-      <c r="W54" s="6">
+      <c r="W54" s="18">
         <v>113.7486877441406</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="55" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <v>53</v>
       </c>
       <c r="B55" s="5">
@@ -4681,92 +4721,92 @@
       <c r="S55">
         <v>7.2155318584287329</v>
       </c>
-      <c r="T55" s="6">
+      <c r="T55" s="17">
         <v>160.73078918457031</v>
       </c>
-      <c r="U55" s="6">
+      <c r="U55" s="17">
         <v>43.9312744140625</v>
       </c>
-      <c r="V55" s="7">
+      <c r="V55" s="12">
         <v>421.3575439453125</v>
       </c>
-      <c r="W55" s="6">
+      <c r="W55" s="18">
         <v>115.39581298828119</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+    <row r="56" spans="1:23" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>54</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="9">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="10">
         <v>36.200000000000003</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="10">
         <v>10.3</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="10">
         <v>39.1</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
+      <c r="H56" s="10">
+        <v>1</v>
+      </c>
+      <c r="I56" s="10">
+        <v>1</v>
+      </c>
+      <c r="J56" s="10">
+        <v>1</v>
+      </c>
+      <c r="K56" s="10">
         <v>78.311722736120871</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="10">
         <v>0.30194992452515612</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="10">
         <v>6.7299267002066468E-2</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="10">
         <v>319.03500818295731</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="10">
         <v>1.7558823911394909E-2</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="10">
         <v>-6.5813240000000004</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="10">
         <v>8.2649999999999988</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="10">
         <v>7.524300631952447</v>
       </c>
-      <c r="T56" s="6">
+      <c r="T56" s="19">
         <v>183.59825134277341</v>
       </c>
-      <c r="U56" s="6">
+      <c r="U56" s="19">
         <v>55.683643341064453</v>
       </c>
-      <c r="V56" s="7">
+      <c r="V56" s="13">
         <v>430.27182006835938</v>
       </c>
-      <c r="W56" s="6">
+      <c r="W56" s="20">
         <v>127.5469055175781</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="5">
@@ -4823,16 +4863,16 @@
       <c r="S57">
         <v>7.8936683487463544</v>
       </c>
-      <c r="T57" s="6">
+      <c r="T57" s="17">
         <v>220.54521179199219</v>
       </c>
-      <c r="U57" s="6">
+      <c r="U57" s="17">
         <v>73.949386596679688</v>
       </c>
-      <c r="V57" s="7">
+      <c r="V57" s="12">
         <v>412.75839233398438</v>
       </c>
-      <c r="W57" s="6">
+      <c r="W57" s="18">
         <v>159.54792785644531</v>
       </c>
     </row>
@@ -4894,16 +4934,16 @@
       <c r="S58">
         <v>8.1867942443913897</v>
       </c>
-      <c r="T58" s="6">
+      <c r="T58" s="17">
         <v>277.30264282226562</v>
       </c>
-      <c r="U58" s="6">
+      <c r="U58" s="17">
         <v>74.325302124023438</v>
       </c>
-      <c r="V58" s="7">
+      <c r="V58" s="12">
         <v>362.14764404296881</v>
       </c>
-      <c r="W58" s="6">
+      <c r="W58" s="18">
         <v>168.36604309082031</v>
       </c>
     </row>
@@ -4965,16 +5005,16 @@
       <c r="S59">
         <v>6.127307728521556</v>
       </c>
-      <c r="T59" s="6">
+      <c r="T59" s="17">
         <v>129.5944519042969</v>
       </c>
-      <c r="U59" s="6">
+      <c r="U59" s="17">
         <v>28.27004241943359</v>
       </c>
-      <c r="V59" s="7">
+      <c r="V59" s="12">
         <v>102.2373123168945</v>
       </c>
-      <c r="W59" s="6">
+      <c r="W59" s="18">
         <v>119.7122497558594</v>
       </c>
     </row>
@@ -5036,16 +5076,16 @@
       <c r="S60">
         <v>6.2558205124620896</v>
       </c>
-      <c r="T60" s="6">
+      <c r="T60" s="17">
         <v>136.37837219238281</v>
       </c>
-      <c r="U60" s="6">
+      <c r="U60" s="17">
         <v>33.65771484375</v>
       </c>
-      <c r="V60" s="7">
+      <c r="V60" s="12">
         <v>149.54704284667969</v>
       </c>
-      <c r="W60" s="6">
+      <c r="W60" s="18">
         <v>123.7313919067383</v>
       </c>
     </row>
@@ -5107,16 +5147,16 @@
       <c r="S61">
         <v>6.4275292626345566</v>
       </c>
-      <c r="T61" s="6">
+      <c r="T61" s="17">
         <v>146.6203308105469</v>
       </c>
-      <c r="U61" s="6">
+      <c r="U61" s="17">
         <v>45.659011840820312</v>
       </c>
-      <c r="V61" s="7">
+      <c r="V61" s="12">
         <v>222.24726867675781</v>
       </c>
-      <c r="W61" s="6">
+      <c r="W61" s="18">
         <v>127.1732711791992</v>
       </c>
     </row>
@@ -5178,16 +5218,16 @@
       <c r="S62">
         <v>6.5629796839516112</v>
       </c>
-      <c r="T62" s="6">
+      <c r="T62" s="17">
         <v>152.10237121582031</v>
       </c>
-      <c r="U62" s="6">
+      <c r="U62" s="17">
         <v>46.247776031494141</v>
       </c>
-      <c r="V62" s="7">
+      <c r="V62" s="12">
         <v>311.9722900390625</v>
       </c>
-      <c r="W62" s="6">
+      <c r="W62" s="18">
         <v>134.20501708984381</v>
       </c>
     </row>
@@ -5249,16 +5289,16 @@
       <c r="S63">
         <v>6.8044029863023248</v>
       </c>
-      <c r="T63" s="6">
+      <c r="T63" s="17">
         <v>165.61930847167969</v>
       </c>
-      <c r="U63" s="6">
+      <c r="U63" s="17">
         <v>52.407566070556641</v>
       </c>
-      <c r="V63" s="7">
+      <c r="V63" s="12">
         <v>386.05911254882812</v>
       </c>
-      <c r="W63" s="6">
+      <c r="W63" s="18">
         <v>123.3727951049805</v>
       </c>
     </row>
@@ -5320,16 +5360,16 @@
       <c r="S64">
         <v>7.1093644814621877</v>
       </c>
-      <c r="T64" s="6">
+      <c r="T64" s="17">
         <v>186.30670166015619</v>
       </c>
-      <c r="U64" s="6">
+      <c r="U64" s="17">
         <v>66.365882873535156</v>
       </c>
-      <c r="V64" s="7">
+      <c r="V64" s="12">
         <v>410.837890625</v>
       </c>
-      <c r="W64" s="6">
+      <c r="W64" s="18">
         <v>127.8787460327148</v>
       </c>
     </row>
@@ -5391,16 +5431,16 @@
       <c r="S65">
         <v>7.467534558385986</v>
       </c>
-      <c r="T65" s="6">
+      <c r="T65" s="17">
         <v>212.5254821777344</v>
       </c>
-      <c r="U65" s="6">
+      <c r="U65" s="17">
         <v>71.492515563964844</v>
       </c>
-      <c r="V65" s="7">
+      <c r="V65" s="12">
         <v>382.10174560546881</v>
       </c>
-      <c r="W65" s="6">
+      <c r="W65" s="18">
         <v>147.7471618652344</v>
       </c>
     </row>
@@ -5462,16 +5502,16 @@
       <c r="S66">
         <v>5.8678445787188336</v>
       </c>
-      <c r="T66" s="6">
+      <c r="T66" s="17">
         <v>142.41864013671881</v>
       </c>
-      <c r="U66" s="6">
+      <c r="U66" s="17">
         <v>44.936752319335938</v>
       </c>
-      <c r="V66" s="7">
+      <c r="V66" s="12">
         <v>119.3353271484375</v>
       </c>
-      <c r="W66" s="6">
+      <c r="W66" s="18">
         <v>131.68983459472659</v>
       </c>
     </row>
@@ -5533,16 +5573,16 @@
       <c r="S67">
         <v>6.0029403943359876</v>
       </c>
-      <c r="T67" s="6">
+      <c r="T67" s="17">
         <v>146.25071716308591</v>
       </c>
-      <c r="U67" s="6">
+      <c r="U67" s="17">
         <v>53.422870635986328</v>
       </c>
-      <c r="V67" s="7">
+      <c r="V67" s="12">
         <v>172.8277893066406</v>
       </c>
-      <c r="W67" s="6">
+      <c r="W67" s="18">
         <v>129.317138671875</v>
       </c>
     </row>
@@ -5604,16 +5644,16 @@
       <c r="S68">
         <v>6.1598376601985221</v>
       </c>
-      <c r="T68" s="6">
+      <c r="T68" s="17">
         <v>149.26435852050781</v>
       </c>
-      <c r="U68" s="6">
+      <c r="U68" s="17">
         <v>40.920269012451172</v>
       </c>
-      <c r="V68" s="7">
+      <c r="V68" s="12">
         <v>251.84065246582031</v>
       </c>
-      <c r="W68" s="6">
+      <c r="W68" s="18">
         <v>126.62109375</v>
       </c>
     </row>
@@ -5675,16 +5715,16 @@
       <c r="S69">
         <v>6.3739323341078986</v>
       </c>
-      <c r="T69" s="6">
+      <c r="T69" s="17">
         <v>171.29029846191409</v>
       </c>
-      <c r="U69" s="6">
+      <c r="U69" s="17">
         <v>61.092109680175781</v>
       </c>
-      <c r="V69" s="7">
+      <c r="V69" s="12">
         <v>334.23583984375</v>
       </c>
-      <c r="W69" s="6">
+      <c r="W69" s="18">
         <v>136.60157775878909</v>
       </c>
     </row>
@@ -5746,16 +5786,16 @@
       <c r="S70">
         <v>6.7270979665862498</v>
       </c>
-      <c r="T70" s="6">
+      <c r="T70" s="17">
         <v>181.84754943847659</v>
       </c>
-      <c r="U70" s="6">
+      <c r="U70" s="17">
         <v>60.702674865722663</v>
       </c>
-      <c r="V70" s="7">
+      <c r="V70" s="12">
         <v>376.05825805664062</v>
       </c>
-      <c r="W70" s="6">
+      <c r="W70" s="18">
         <v>112.16490173339839</v>
       </c>
     </row>
